--- a/Value/AbbVie.xlsx
+++ b/Value/AbbVie.xlsx
@@ -8,27 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8C5B3A-7E52-DD4E-A778-817227F36420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFB5DA-1081-CD48-8056-59EABF79F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$O$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$O$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$O$106</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$B$106:$O$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$B$19:$O$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$B$3:$O$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -84,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,6 +550,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -906,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1025,6 +1014,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1037,10 +1032,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2562,10 +2554,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S84" sqref="S84"/>
+      <selection pane="bottomRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3572,7 +3564,7 @@
         <v>10.924488617617948</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3619,7 +3611,7 @@
         <v>-2044000000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3665,8 +3657,11 @@
       <c r="O18" s="1">
         <v>8467000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="U18" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3712,8 +3707,12 @@
       <c r="O19" s="10">
         <v>11424000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="66">
+        <f>O40-O56-O61</f>
+        <v>-54042000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>-0.52252779403159744</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>0.1968</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>18814000000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3912,7 +3911,7 @@
         <v>0.3241</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>-5337000000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>13477000000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>0.2321</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>1632000000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>11836000000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>103</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>2.5472188528851136E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>0.2039</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6767,10 +6766,10 @@
       <c r="O83" s="1">
         <v>-686000000</v>
       </c>
-      <c r="V83" s="60" t="s">
+      <c r="V83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="W83" s="61"/>
+      <c r="W83" s="63"/>
     </row>
     <row r="84" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -6818,10 +6817,10 @@
       <c r="O84" s="1">
         <v>1605000000</v>
       </c>
-      <c r="V84" s="62" t="s">
+      <c r="V84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="W84" s="63"/>
+      <c r="W84" s="65"/>
     </row>
     <row r="85" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7315,10 +7314,10 @@
       <c r="O93" s="1">
         <v>235000000</v>
       </c>
-      <c r="V93" s="62" t="s">
+      <c r="V93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="W93" s="63"/>
+      <c r="W93" s="65"/>
     </row>
     <row r="94" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7579,10 +7578,10 @@
       <c r="O98" s="1">
         <v>-10043000000</v>
       </c>
-      <c r="V98" s="62" t="s">
+      <c r="V98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="W98" s="63"/>
+      <c r="W98" s="65"/>
     </row>
     <row r="99" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -7899,10 +7898,10 @@
       <c r="O104" s="11">
         <v>9201000000</v>
       </c>
-      <c r="V104" s="62" t="s">
+      <c r="V104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="W104" s="63"/>
+      <c r="W104" s="65"/>
     </row>
     <row r="105" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8074,7 +8073,7 @@
       <c r="S107" s="41"/>
       <c r="T107" s="44">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>946215596608.854</v>
+        <v>1156818014017.1255</v>
       </c>
       <c r="U107" s="45" t="s">
         <v>148</v>
@@ -8083,7 +8082,7 @@
         <v>149</v>
       </c>
       <c r="W107" s="47">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8105,7 +8104,7 @@
       </c>
       <c r="T108" s="44">
         <f>T107+T106</f>
-        <v>972267138782.2356</v>
+        <v>1182869556190.5071</v>
       </c>
       <c r="U108" s="45" t="s">
         <v>144</v>
@@ -8119,10 +8118,10 @@
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P109" s="64" t="s">
+      <c r="P109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="Q109" s="65"/>
+      <c r="Q109" s="61"/>
     </row>
     <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="P110" s="50" t="s">
@@ -8130,7 +8129,7 @@
       </c>
       <c r="Q110" s="51">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>858246074317.84583</v>
+        <v>1024773192816.1041</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8157,7 +8156,7 @@
       </c>
       <c r="Q113" s="51">
         <f>Q110+Q111-Q112</f>
-        <v>804204074317.84583</v>
+        <v>970731192816.10413</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8165,8 +8164,8 @@
         <v>155</v>
       </c>
       <c r="Q114" s="52">
-        <f>O34</f>
-        <v>1778000000</v>
+        <f>O34*(1+(5*U16))</f>
+        <v>1993256476.9573853</v>
       </c>
     </row>
     <row r="115" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8175,7 +8174,7 @@
       </c>
       <c r="Q115" s="54">
         <f>Q113/Q114</f>
-        <v>452.30825327212926</v>
+        <v>487.00767013078058</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8192,7 +8191,7 @@
       </c>
       <c r="Q117" s="58">
         <f>Q115/Q116-1</f>
-        <v>2.0212293986515881</v>
+        <v>2.2530069476373025</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
